--- a/학습자료/단답형/객관식+단답형_영어_유의어_Day02.xlsx
+++ b/학습자료/단답형/객관식+단답형_영어_유의어_Day02.xlsx
@@ -1049,14 +1049,14 @@
       <c r="A52" t="inlineStr">
         <is>
           <t>reputable
-1. 만족, 희열
-2. 평판 좋은, 존경할 만한
-3. 계속하다</t>
+1. 평판 좋은, 존경할 만한
+2. 배열하다, 일렬로 세우다
+3. 침입하다, 난입하다</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2, 평판 좋은, 존경할 만한</t>
+          <t>1, 평판 좋은, 존경할 만한</t>
         </is>
       </c>
     </row>
@@ -1064,14 +1064,14 @@
       <c r="A53" t="inlineStr">
         <is>
           <t>prestigious
-1. 배열하다, 일렬로 세우다
-2. 평판 좋은, 존경할 만한
-3. 만족, 희열</t>
+1. 자신감 있는
+2. 만족, 희열
+3. 평판 좋은, 존경할 만한</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2, 평판 좋은, 존경할 만한</t>
+          <t>3, 평판 좋은, 존경할 만한</t>
         </is>
       </c>
     </row>
@@ -1079,8 +1079,8 @@
       <c r="A54" t="inlineStr">
         <is>
           <t>creditable
-1. 신뢰, 확신
-2. 나눠주다, 분배하다
+1. 침입하다, 난입하다
+2. 생기, 활기
 3. 평판 좋은, 존경할 만한</t>
         </is>
       </c>
@@ -1094,44 +1094,44 @@
       <c r="A55" t="inlineStr">
         <is>
           <t>respectable
+1. 평판 좋은, 존경할 만한
+2. 배열하다, 일렬로 세우다
+3. 침입하다, 난입하다</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1, 평판 좋은, 존경할 만한</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>venerable
+1. 나눠주다, 분배하다
+2. 평판 좋은, 존경할 만한
+3. 고요, 평온</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2, 평판 좋은, 존경할 만한</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>confident
 1. 자신감 있는
 2. 평판 좋은, 존경할 만한
-3. 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2, 평판 좋은, 존경할 만한</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>venerable
-1. 자신감 있는
-2. 나눠주다, 분배하다
-3. 평판 좋은, 존경할 만한</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>3, 평판 좋은, 존경할 만한</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>confident
-1. 신뢰, 확신
-2. 계속하다
-3. 자신감 있는</t>
+3. 생기, 활기</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3, 자신감 있는</t>
+          <t>1, 자신감 있는</t>
         </is>
       </c>
     </row>
@@ -1139,221 +1139,221 @@
       <c r="A58" t="inlineStr">
         <is>
           <t>assured
+1. 만족, 희열
+2. 자신감 있는
+3. 침입하다, 난입하다</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2, 자신감 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>assertive
+1. 생기, 활기
+2. 신뢰, 확신
+3. 자신감 있는</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>3, 자신감 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>sanguine
+1. 고요, 평온
+2. 신뢰, 확신
+3. 자신감 있는</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>3, 자신감 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>buoyant
+1. 자신감 있는
+2. 침입하다, 난입하다
+3. 나눠주다, 분배하다</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1, 자신감 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>line up
+1. 계속하다
+2. 침입하다, 난입하다
+3. 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>3, 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>arrange
+1. 계속하다
+2. 배열하다, 일렬로 세우다
+3. 고요, 평온</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2, 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>array
+1. 배열하다, 일렬로 세우다
+2. 생기, 활기
+3. 신뢰, 확신</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1, 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>sequence
+1. 신뢰, 확신
+2. 배열하다, 일렬로 세우다
+3. 만족, 희열</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2, 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>align
+1. 계속하다
+2. 신뢰, 확신
+3. 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>3, 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>give out
+1. 생기, 활기
+2. 신뢰, 확신
+3. 나눠주다, 분배하다</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>3, 나눠주다, 분배하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>hand out
+1. 나눠주다, 분배하다
+2. 신뢰, 확신
+3. 침입하다, 난입하다</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1, 나눠주다, 분배하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>give away
+1. 생기, 활기
+2. 자신감 있는
+3. 나눠주다, 분배하다</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>3, 나눠주다, 분배하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>deal out
+1. 나눠주다, 분배하다
+2. 고요, 평온
+3. 계속하다</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1, 나눠주다, 분배하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>serve out
+1. 나눠주다, 분배하다
+2. 계속하다
+3. 고요, 평온</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1, 나눠주다, 분배하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>carry on
 1. 나눠주다, 분배하다
 2. 계속하다
 3. 자신감 있는</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>3, 자신감 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>assertive
-1. 배열하다, 일렬로 세우다
-2. 평판 좋은, 존경할 만한
-3. 자신감 있는</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>3, 자신감 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>sanguine
-1. 고요, 평온
-2. 배열하다, 일렬로 세우다
-3. 자신감 있는</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>3, 자신감 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>buoyant
-1. 나눠주다, 분배하다
-2. 생기, 활기
-3. 자신감 있는</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>3, 자신감 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>line up
-1. 자신감 있는
-2. 배열하다, 일렬로 세우다
-3. 고요, 평온</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2, 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>arrange
-1. 배열하다, 일렬로 세우다
-2. 자신감 있는
-3. 생기, 활기</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>1, 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>array
-1. 배열하다, 일렬로 세우다
-2. 침입하다, 난입하다
-3. 평판 좋은, 존경할 만한</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>1, 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>sequence
-1. 나눠주다, 분배하다
-2. 신뢰, 확신
-3. 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>3, 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>align
-1. 배열하다, 일렬로 세우다
-2. 만족, 희열
-3. 신뢰, 확신</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>1, 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>give out
-1. 평판 좋은, 존경할 만한
-2. 신뢰, 확신
-3. 나눠주다, 분배하다</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>3, 나눠주다, 분배하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>hand out
-1. 배열하다, 일렬로 세우다
-2. 만족, 희열
-3. 나눠주다, 분배하다</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>3, 나눠주다, 분배하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>give away
-1. 나눠주다, 분배하다
-2. 신뢰, 확신
-3. 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>1, 나눠주다, 분배하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>deal out
-1. 계속하다
-2. 나눠주다, 분배하다
-3. 만족, 희열</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2, 나눠주다, 분배하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>serve out
-1. 나눠주다, 분배하다
-2. 생기, 활기
-3. 만족, 희열</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>1, 나눠주다, 분배하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>carry on
-1. 신뢰, 확신
-2. 계속하다
-3. 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>2, 계속하다</t>
@@ -1364,29 +1364,29 @@
       <c r="A73" t="inlineStr">
         <is>
           <t>keep on
-1. 배열하다, 일렬로 세우다
+1. 계속하다
+2. 고요, 평온
+3. 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1, 계속하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>go on
+1. 자신감 있는
 2. 고요, 평온
 3. 계속하다</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t>3, 계속하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>go on
-1. 계속하다
-2. 만족, 희열
-3. 자신감 있는</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>1, 계속하다</t>
         </is>
       </c>
     </row>
@@ -1394,14 +1394,14 @@
       <c r="A75" t="inlineStr">
         <is>
           <t>stick at
-1. 자신감 있는
-2. 생기, 활기
-3. 계속하다</t>
+1. 평판 좋은, 존경할 만한
+2. 계속하다
+3. 만족, 희열</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>3, 계속하다</t>
+          <t>2, 계속하다</t>
         </is>
       </c>
     </row>
@@ -1409,14 +1409,14 @@
       <c r="A76" t="inlineStr">
         <is>
           <t>continue
-1. 계속하다
-2. 자신감 있는
-3. 평판 좋은, 존경할 만한</t>
+1. 평판 좋은, 존경할 만한
+2. 계속하다
+3. 자신감 있는</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1, 계속하다</t>
+          <t>2, 계속하다</t>
         </is>
       </c>
     </row>
@@ -1424,14 +1424,14 @@
       <c r="A77" t="inlineStr">
         <is>
           <t>break out
-1. 침입하다, 난입하다
-2. 계속하다
+1. 신뢰, 확신
+2. 침입하다, 난입하다
 3. 만족, 희열</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1, 침입하다, 난입하다</t>
+          <t>2, 침입하다, 난입하다</t>
         </is>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
           <t>rush into
 1. 나눠주다, 분배하다
 2. 침입하다, 난입하다
-3. 생기, 활기</t>
+3. 자신감 있는</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1469,14 +1469,14 @@
       <c r="A80" t="inlineStr">
         <is>
           <t>invade
-1. 만족, 희열
-2. 자신감 있는
-3. 침입하다, 난입하다</t>
+1. 자신감 있는
+2. 침입하다, 난입하다
+3. 평판 좋은, 존경할 만한</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>3, 침입하다, 난입하다</t>
+          <t>2, 침입하다, 난입하다</t>
         </is>
       </c>
     </row>
@@ -1484,101 +1484,101 @@
       <c r="A81" t="inlineStr">
         <is>
           <t>trespass
-1. 고요, 평온
+1. 침입하다, 난입하다
+2. 평판 좋은, 존경할 만한
+3. 만족, 희열</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1, 침입하다, 난입하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>gratification
+1. 계속하다
+2. 만족, 희열
+3. 나눠주다, 분배하다</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2, 만족, 희열</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>satisfaction
+1. 침입하다, 난입하다
+2. 만족, 희열
+3. 자신감 있는</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2, 만족, 희열</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>contentment
+1. 침입하다, 난입하다
+2. 나눠주다, 분배하다
+3. 만족, 희열</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>3, 만족, 희열</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>euphoria
+1. 만족, 희열
+2. 나눠주다, 분배하다
+3. 생기, 활기</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1, 만족, 희열</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>delight
+1. 평판 좋은, 존경할 만한
+2. 만족, 희열
+3. 침입하다, 난입하다</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2, 만족, 희열</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>liveliness
+1. 평판 좋은, 존경할 만한
 2. 침입하다, 난입하다
 3. 생기, 활기</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2, 침입하다, 난입하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>gratification
-1. 자신감 있는
-2. 만족, 희열
-3. 침입하다, 난입하다</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2, 만족, 희열</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>satisfaction
-1. 평판 좋은, 존경할 만한
-2. 나눠주다, 분배하다
-3. 만족, 희열</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>3, 만족, 희열</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>contentment
-1. 고요, 평온
-2. 계속하다
-3. 만족, 희열</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>3, 만족, 희열</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>euphoria
-1. 만족, 희열
-2. 고요, 평온
-3. 자신감 있는</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>1, 만족, 희열</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>delight
-1. 나눠주다, 분배하다
-2. 만족, 희열
-3. 고요, 평온</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2, 만족, 희열</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>liveliness
-1. 계속하다
-2. 침입하다, 난입하다
-3. 생기, 활기</t>
-        </is>
-      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>3, 생기, 활기</t>
@@ -1589,14 +1589,14 @@
       <c r="A88" t="inlineStr">
         <is>
           <t>spring
-1. 고요, 평온
-2. 생기, 활기
+1. 생기, 활기
+2. 배열하다, 일렬로 세우다
 3. 만족, 희열</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2, 생기, 활기</t>
+          <t>1, 생기, 활기</t>
         </is>
       </c>
     </row>
@@ -1604,14 +1604,14 @@
       <c r="A89" t="inlineStr">
         <is>
           <t>sparkle
-1. 평판 좋은, 존경할 만한
-2. 배열하다, 일렬로 세우다
-3. 생기, 활기</t>
+1. 생기, 활기
+2. 평판 좋은, 존경할 만한
+3. 계속하다</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>3, 생기, 활기</t>
+          <t>1, 생기, 활기</t>
         </is>
       </c>
     </row>
@@ -1619,14 +1619,14 @@
       <c r="A90" t="inlineStr">
         <is>
           <t>vivacity
-1. 자신감 있는
-2. 생기, 활기
-3. 만족, 희열</t>
+1. 생기, 활기
+2. 신뢰, 확신
+3. 평판 좋은, 존경할 만한</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2, 생기, 활기</t>
+          <t>1, 생기, 활기</t>
         </is>
       </c>
     </row>
@@ -1634,8 +1634,8 @@
       <c r="A91" t="inlineStr">
         <is>
           <t>vigor
-1. 신뢰, 확신
-2. 침입하다, 난입하다
+1. 계속하다
+2. 평판 좋은, 존경할 만한
 3. 생기, 활기</t>
         </is>
       </c>
@@ -1649,14 +1649,14 @@
       <c r="A92" t="inlineStr">
         <is>
           <t>confidence
-1. 만족, 희열
-2. 자신감 있는
-3. 신뢰, 확신</t>
+1. 평판 좋은, 존경할 만한
+2. 신뢰, 확신
+3. 나눠주다, 분배하다</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>3, 신뢰, 확신</t>
+          <t>2, 신뢰, 확신</t>
         </is>
       </c>
     </row>
@@ -1664,14 +1664,14 @@
       <c r="A93" t="inlineStr">
         <is>
           <t>faith
-1. 신뢰, 확신
-2. 평판 좋은, 존경할 만한
-3. 배열하다, 일렬로 세우다</t>
+1. 배열하다, 일렬로 세우다
+2. 신뢰, 확신
+3. 생기, 활기</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>1, 신뢰, 확신</t>
+          <t>2, 신뢰, 확신</t>
         </is>
       </c>
     </row>
@@ -1681,7 +1681,7 @@
           <t>credence
 1. 신뢰, 확신
 2. 생기, 활기
-3. 침입하다, 난입하다</t>
+3. 만족, 희열</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1694,14 +1694,14 @@
       <c r="A95" t="inlineStr">
         <is>
           <t>reliance
-1. 신뢰, 확신
-2. 만족, 희열
-3. 평판 좋은, 존경할 만한</t>
+1. 만족, 희열
+2. 신뢰, 확신
+3. 자신감 있는</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>1, 신뢰, 확신</t>
+          <t>2, 신뢰, 확신</t>
         </is>
       </c>
     </row>
@@ -1709,59 +1709,59 @@
       <c r="A96" t="inlineStr">
         <is>
           <t>conviction
+1. 신뢰, 확신
+2. 침입하다, 난입하다
+3. 계속하다</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1, 신뢰, 확신</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>tranquility
 1. 고요, 평온
 2. 생기, 활기
-3. 신뢰, 확신</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>3, 신뢰, 확신</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>tranquility
+3. 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>1, 고요, 평온</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>silence
+1. 침입하다, 난입하다
+2. 계속하다
+3. 고요, 평온</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>3, 고요, 평온</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>quiet
 1. 침입하다, 난입하다
 2. 고요, 평온
-3. 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
+3. 만족, 희열</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
         <is>
           <t>2, 고요, 평온</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>silence
-1. 고요, 평온
-2. 평판 좋은, 존경할 만한
-3. 나눠주다, 분배하다</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>1, 고요, 평온</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>quiet
-1. 침입하다, 난입하다
-2. 만족, 희열
-3. 고요, 평온</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>3, 고요, 평온</t>
         </is>
       </c>
     </row>
@@ -1769,14 +1769,14 @@
       <c r="A100" t="inlineStr">
         <is>
           <t>serenity
-1. 고요, 평온
-2. 신뢰, 확신
-3. 만족, 희열</t>
+1. 만족, 희열
+2. 고요, 평온
+3. 신뢰, 확신</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>1, 고요, 평온</t>
+          <t>2, 고요, 평온</t>
         </is>
       </c>
     </row>
@@ -1784,14 +1784,14 @@
       <c r="A101" t="inlineStr">
         <is>
           <t>composure
-1. 고요, 평온
-2. 평판 좋은, 존경할 만한
-3. 계속하다</t>
+1. 신뢰, 확신
+2. 자신감 있는
+3. 고요, 평온</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>1, 고요, 평온</t>
+          <t>3, 고요, 평온</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/객관식+단답형_영어_유의어_Day02.xlsx
+++ b/학습자료/단답형/객관식+단답형_영어_유의어_Day02.xlsx
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>reputable</t>
+          <t>reputable*</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>prestigious</t>
+          <t>prestigious*</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>confident</t>
+          <t>confident*</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>line up</t>
+          <t>line up*</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>give out</t>
+          <t>give out*</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>carry on</t>
+          <t>carry on*</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>break out</t>
+          <t>break out*</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>gratification</t>
+          <t>gratification*</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>satisfaction</t>
+          <t>satisfaction*</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>liveliness</t>
+          <t>liveliness*</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>confidence</t>
+          <t>confidence*</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>tranquility</t>
+          <t>tranquility*</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1048,30 +1048,30 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>reputable
-1. 평판 좋은, 존경할 만한
-2. 배열하다, 일렬로 세우다
-3. 침입하다, 난입하다</t>
+          <t>reputable*
+1. 자신감 있는
+2. 평판 좋은, 존경할 만한
+3. 배열하다, 일렬로 세우다</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1, 평판 좋은, 존경할 만한</t>
+          <t>2, 평판 좋은, 존경할 만한</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>prestigious
+          <t>prestigious*
 1. 자신감 있는
-2. 만족, 희열
-3. 평판 좋은, 존경할 만한</t>
+2. 평판 좋은, 존경할 만한
+3. 만족, 희열</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3, 평판 좋은, 존경할 만한</t>
+          <t>2, 평판 좋은, 존경할 만한</t>
         </is>
       </c>
     </row>
@@ -1079,8 +1079,8 @@
       <c r="A54" t="inlineStr">
         <is>
           <t>creditable
-1. 침입하다, 난입하다
-2. 생기, 활기
+1. 자신감 있는
+2. 고요, 평온
 3. 평판 좋은, 존경할 만한</t>
         </is>
       </c>
@@ -1095,8 +1095,8 @@
         <is>
           <t>respectable
 1. 평판 좋은, 존경할 만한
-2. 배열하다, 일렬로 세우다
-3. 침입하다, 난입하다</t>
+2. 나눠주다, 분배하다
+3. 자신감 있는</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1109,119 +1109,119 @@
       <c r="A56" t="inlineStr">
         <is>
           <t>venerable
-1. 나눠주다, 분배하다
-2. 평판 좋은, 존경할 만한
-3. 고요, 평온</t>
+1. 고요, 평온
+2. 신뢰, 확신
+3. 평판 좋은, 존경할 만한</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2, 평판 좋은, 존경할 만한</t>
+          <t>3, 평판 좋은, 존경할 만한</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>confident
+          <t>confident*
+1. 신뢰, 확신
+2. 자신감 있는
+3. 계속하다</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2, 자신감 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>assured
 1. 자신감 있는
+2. 나눠주다, 분배하다
+3. 만족, 희열</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1, 자신감 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>assertive
+1. 고요, 평온
+2. 배열하다, 일렬로 세우다
+3. 자신감 있는</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>3, 자신감 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>sanguine
+1. 자신감 있는
+2. 생기, 활기
+3. 나눠주다, 분배하다</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1, 자신감 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>buoyant
+1. 자신감 있는
+2. 생기, 활기
+3. 신뢰, 확신</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1, 자신감 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>line up*
+1. 배열하다, 일렬로 세우다
+2. 고요, 평온
+3. 침입하다, 난입하다</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1, 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>arrange
+1. 배열하다, 일렬로 세우다
 2. 평판 좋은, 존경할 만한
 3. 생기, 활기</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>1, 자신감 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>assured
-1. 만족, 희열
-2. 자신감 있는
-3. 침입하다, 난입하다</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2, 자신감 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>assertive
-1. 생기, 활기
-2. 신뢰, 확신
-3. 자신감 있는</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>3, 자신감 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>sanguine
-1. 고요, 평온
-2. 신뢰, 확신
-3. 자신감 있는</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>3, 자신감 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>buoyant
-1. 자신감 있는
-2. 침입하다, 난입하다
-3. 나눠주다, 분배하다</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>1, 자신감 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>line up
-1. 계속하다
-2. 침입하다, 난입하다
-3. 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>3, 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>arrange
-1. 계속하다
-2. 배열하다, 일렬로 세우다
-3. 고요, 평온</t>
-        </is>
-      </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2, 배열하다, 일렬로 세우다</t>
+          <t>1, 배열하다, 일렬로 세우다</t>
         </is>
       </c>
     </row>
@@ -1229,14 +1229,14 @@
       <c r="A64" t="inlineStr">
         <is>
           <t>array
-1. 배열하다, 일렬로 세우다
-2. 생기, 활기
-3. 신뢰, 확신</t>
+1. 만족, 희열
+2. 평판 좋은, 존경할 만한
+3. 배열하다, 일렬로 세우다</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1, 배열하다, 일렬로 세우다</t>
+          <t>3, 배열하다, 일렬로 세우다</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
           <t>sequence
 1. 신뢰, 확신
 2. 배열하다, 일렬로 세우다
-3. 만족, 희열</t>
+3. 평판 좋은, 존경할 만한</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1259,419 +1259,419 @@
       <c r="A66" t="inlineStr">
         <is>
           <t>align
+1. 배열하다, 일렬로 세우다
+2. 나눠주다, 분배하다
+3. 자신감 있는</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1, 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>give out*
+1. 나눠주다, 분배하다
+2. 생기, 활기
+3. 만족, 희열</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1, 나눠주다, 분배하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>hand out
+1. 배열하다, 일렬로 세우다
+2. 계속하다
+3. 나눠주다, 분배하다</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>3, 나눠주다, 분배하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>give away
+1. 나눠주다, 분배하다
+2. 신뢰, 확신
+3. 평판 좋은, 존경할 만한</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1, 나눠주다, 분배하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>deal out
+1. 나눠주다, 분배하다
+2. 생기, 활기
+3. 자신감 있는</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1, 나눠주다, 분배하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>serve out
+1. 생기, 활기
+2. 배열하다, 일렬로 세우다
+3. 나눠주다, 분배하다</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>3, 나눠주다, 분배하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>carry on*
+1. 계속하다
+2. 평판 좋은, 존경할 만한
+3. 나눠주다, 분배하다</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1, 계속하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>keep on
 1. 계속하다
 2. 신뢰, 확신
+3. 나눠주다, 분배하다</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1, 계속하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>go on
+1. 만족, 희열
+2. 계속하다
+3. 생기, 활기</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2, 계속하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>stick at
+1. 배열하다, 일렬로 세우다
+2. 계속하다
+3. 고요, 평온</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2, 계속하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>continue
+1. 계속하다
+2. 평판 좋은, 존경할 만한
+3. 나눠주다, 분배하다</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1, 계속하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>break out*
+1. 침입하다, 난입하다
+2. 평판 좋은, 존경할 만한
+3. 나눠주다, 분배하다</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1, 침입하다, 난입하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>burst into
+1. 생기, 활기
+2. 나눠주다, 분배하다
+3. 침입하다, 난입하다</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>3, 침입하다, 난입하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>rush into
+1. 만족, 희열
+2. 침입하다, 난입하다
+3. 나눠주다, 분배하다</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2, 침입하다, 난입하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>invade
+1. 나눠주다, 분배하다
+2. 계속하다
+3. 침입하다, 난입하다</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>3, 침입하다, 난입하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>trespass
+1. 침입하다, 난입하다
+2. 나눠주다, 분배하다
+3. 고요, 평온</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1, 침입하다, 난입하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>gratification*
+1. 고요, 평온
+2. 만족, 희열
+3. 신뢰, 확신</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2, 만족, 희열</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>satisfaction*
+1. 나눠주다, 분배하다
+2. 고요, 평온
+3. 만족, 희열</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>3, 만족, 희열</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>contentment
+1. 만족, 희열
+2. 생기, 활기
 3. 배열하다, 일렬로 세우다</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>3, 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>give out
-1. 생기, 활기
-2. 신뢰, 확신
-3. 나눠주다, 분배하다</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>3, 나눠주다, 분배하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>hand out
-1. 나눠주다, 분배하다
-2. 신뢰, 확신
-3. 침입하다, 난입하다</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>1, 나눠주다, 분배하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>give away
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1, 만족, 희열</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>euphoria
+1. 만족, 희열
+2. 침입하다, 난입하다
+3. 고요, 평온</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1, 만족, 희열</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>delight
 1. 생기, 활기
 2. 자신감 있는
+3. 만족, 희열</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>3, 만족, 희열</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>liveliness*
+1. 생기, 활기
+2. 자신감 있는
+3. 만족, 희열</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1, 생기, 활기</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>spring
+1. 평판 좋은, 존경할 만한
+2. 만족, 희열
+3. 생기, 활기</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>3, 생기, 활기</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>sparkle
+1. 만족, 희열
+2. 생기, 활기
 3. 나눠주다, 분배하다</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>3, 나눠주다, 분배하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>deal out
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2, 생기, 활기</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>vivacity
+1. 침입하다, 난입하다
+2. 신뢰, 확신
+3. 생기, 활기</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>3, 생기, 활기</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>vigor
+1. 신뢰, 확신
+2. 고요, 평온
+3. 생기, 활기</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>3, 생기, 활기</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>confidence*
+1. 신뢰, 확신
+2. 만족, 희열
+3. 고요, 평온</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1, 신뢰, 확신</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>faith
 1. 나눠주다, 분배하다
 2. 고요, 평온
-3. 계속하다</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>1, 나눠주다, 분배하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>serve out
-1. 나눠주다, 분배하다
-2. 계속하다
-3. 고요, 평온</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>1, 나눠주다, 분배하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>carry on
-1. 나눠주다, 분배하다
-2. 계속하다
-3. 자신감 있는</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2, 계속하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>keep on
-1. 계속하다
-2. 고요, 평온
-3. 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>1, 계속하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>go on
-1. 자신감 있는
-2. 고요, 평온
-3. 계속하다</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>3, 계속하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>stick at
-1. 평판 좋은, 존경할 만한
-2. 계속하다
-3. 만족, 희열</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2, 계속하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>continue
-1. 평판 좋은, 존경할 만한
-2. 계속하다
-3. 자신감 있는</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2, 계속하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>break out
-1. 신뢰, 확신
-2. 침입하다, 난입하다
-3. 만족, 희열</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2, 침입하다, 난입하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>burst into
-1. 배열하다, 일렬로 세우다
-2. 침입하다, 난입하다
 3. 신뢰, 확신</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2, 침입하다, 난입하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>rush into
-1. 나눠주다, 분배하다
-2. 침입하다, 난입하다
-3. 자신감 있는</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2, 침입하다, 난입하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>invade
-1. 자신감 있는
-2. 침입하다, 난입하다
-3. 평판 좋은, 존경할 만한</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2, 침입하다, 난입하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>trespass
-1. 침입하다, 난입하다
-2. 평판 좋은, 존경할 만한
-3. 만족, 희열</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>1, 침입하다, 난입하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>gratification
-1. 계속하다
-2. 만족, 희열
-3. 나눠주다, 분배하다</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2, 만족, 희열</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>satisfaction
-1. 침입하다, 난입하다
-2. 만족, 희열
-3. 자신감 있는</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2, 만족, 희열</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>contentment
-1. 침입하다, 난입하다
-2. 나눠주다, 분배하다
-3. 만족, 희열</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>3, 만족, 희열</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>euphoria
-1. 만족, 희열
-2. 나눠주다, 분배하다
-3. 생기, 활기</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>1, 만족, 희열</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>delight
-1. 평판 좋은, 존경할 만한
-2. 만족, 희열
-3. 침입하다, 난입하다</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2, 만족, 희열</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>liveliness
-1. 평판 좋은, 존경할 만한
-2. 침입하다, 난입하다
-3. 생기, 활기</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>3, 생기, 활기</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>spring
-1. 생기, 활기
-2. 배열하다, 일렬로 세우다
-3. 만족, 희열</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>1, 생기, 활기</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>sparkle
-1. 생기, 활기
-2. 평판 좋은, 존경할 만한
-3. 계속하다</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>1, 생기, 활기</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>vivacity
-1. 생기, 활기
-2. 신뢰, 확신
-3. 평판 좋은, 존경할 만한</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>1, 생기, 활기</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>vigor
-1. 계속하다
-2. 평판 좋은, 존경할 만한
-3. 생기, 활기</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>3, 생기, 활기</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>confidence
-1. 평판 좋은, 존경할 만한
-2. 신뢰, 확신
-3. 나눠주다, 분배하다</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2, 신뢰, 확신</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>faith
-1. 배열하다, 일렬로 세우다
-2. 신뢰, 확신
-3. 생기, 활기</t>
-        </is>
-      </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2, 신뢰, 확신</t>
+          <t>3, 신뢰, 확신</t>
         </is>
       </c>
     </row>
@@ -1694,44 +1694,44 @@
       <c r="A95" t="inlineStr">
         <is>
           <t>reliance
+1. 신뢰, 확신
+2. 고요, 평온
+3. 자신감 있는</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>1, 신뢰, 확신</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>conviction
 1. 만족, 희열
 2. 신뢰, 확신
 3. 자신감 있는</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>2, 신뢰, 확신</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>conviction
-1. 신뢰, 확신
-2. 침입하다, 난입하다
-3. 계속하다</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>1, 신뢰, 확신</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>tranquility
-1. 고요, 평온
-2. 생기, 활기
-3. 배열하다, 일렬로 세우다</t>
+          <t>tranquility*
+1. 침입하다, 난입하다
+2. 평판 좋은, 존경할 만한
+3. 고요, 평온</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>1, 고요, 평온</t>
+          <t>3, 고요, 평온</t>
         </is>
       </c>
     </row>
@@ -1739,14 +1739,14 @@
       <c r="A98" t="inlineStr">
         <is>
           <t>silence
-1. 침입하다, 난입하다
-2. 계속하다
-3. 고요, 평온</t>
+1. 생기, 활기
+2. 고요, 평온
+3. 계속하다</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>3, 고요, 평온</t>
+          <t>2, 고요, 평온</t>
         </is>
       </c>
     </row>
@@ -1754,14 +1754,14 @@
       <c r="A99" t="inlineStr">
         <is>
           <t>quiet
-1. 침입하다, 난입하다
-2. 고요, 평온
-3. 만족, 희열</t>
+1. 배열하다, 일렬로 세우다
+2. 평판 좋은, 존경할 만한
+3. 고요, 평온</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2, 고요, 평온</t>
+          <t>3, 고요, 평온</t>
         </is>
       </c>
     </row>
@@ -1769,29 +1769,29 @@
       <c r="A100" t="inlineStr">
         <is>
           <t>serenity
+1. 고요, 평온
+2. 침입하다, 난입하다
+3. 신뢰, 확신</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>1, 고요, 평온</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>composure
 1. 만족, 희열
 2. 고요, 평온
-3. 신뢰, 확신</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
+3. 생기, 활기</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
         <is>
           <t>2, 고요, 평온</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>composure
-1. 신뢰, 확신
-2. 자신감 있는
-3. 고요, 평온</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>3, 고요, 평온</t>
         </is>
       </c>
     </row>
